--- a/GATEWAY/A1#111#ABINTRAXSRLXX/Abintrax/LiveCapture/1.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111#ABINTRAXSRLXX/Abintrax/LiveCapture/1.0/report-checklist.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="179">
   <si>
     <t xml:space="preserve">COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -293,7 +293,7 @@
 Al fine di rendere non valido il token è necessario non valorizzare nel JWT il campo "purpose_of_use".</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-07-11T143841.500</t>
+    <t xml:space="preserve">2025-07-11T143841</t>
   </si>
   <si>
     <t xml:space="preserve">ff949a2c4c892a19</t>
@@ -327,10 +327,7 @@
 Al fine di rendere non valido il token è necessario valorizzare il campo "action_id" con la stringa "TEST" (valore non ammesso).</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-07-11T152841.501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Da applicativo non verrà mai costruito in TokenJwt con dati obbligatori errati</t>
+    <t xml:space="preserve">L’applicativo effettua controlli preventivi sul dato inserito</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_RSA_TIMEOUT</t>
@@ -340,13 +337,13 @@
 "ERRORE BLOCCANTE (SI/NO)", "ERRORE VISIBILE A UTENTE (SI/NO)", "MESSAGGIO DI ERRORE", "GESTITO IN BACKOFFICE (SI/NO)", " PRESENTE CODA DI RETRY AUTOMATICA PER L'INVIO DEL DOCUMENTO AL FSE A SEGUITO DELLA RISOLUZIONE DELL'ERRORE (SI/NO)",  "INVIO MANUALE DEL DOCUMENTO AL FSE A SEGUITO DELLA RISOLUZIONE DELL'ERRORE (SI/NO)", "GESTIONE ERRORE".</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-07-11T154025.201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Campo/sezione non gestito/a in modo strutturato dall’applicativo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   </t>
+    <t xml:space="preserve">2025-07-16T134841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Connect timed out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L'errore viene gestito in maniera trasparente all’operatore, con la notifica di un messaggio di errore. In caso di retry del fallimento, l'errore viene gestito dall’operatore effettuando un nuovo tentativo di invio.</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT6_KO</t>
@@ -375,10 +372,7 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-07-11T150953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L’applicativo effettua controlli preventivi sul dato inserito</t>
+    <t xml:space="preserve">   </t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT9_KO</t>
@@ -407,9 +401,6 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-07-11T151057</t>
-  </si>
-  <si>
     <t xml:space="preserve">Campo valorizzabile tramite selezione da un set di valori ammessi</t>
   </si>
   <si>
@@ -420,9 +411,6 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-07-11T151129</t>
-  </si>
-  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT14_KO</t>
   </si>
   <si>
@@ -430,9 +418,6 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-07-11T145647</t>
-  </si>
-  <si>
     <t xml:space="preserve">Campo valorizzato di default</t>
   </si>
   <si>
@@ -481,9 +466,6 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-07-11T150024</t>
-  </si>
-  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT18_KO</t>
   </si>
   <si>
@@ -491,9 +473,6 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-07-11T150105</t>
-  </si>
-  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT19_KO</t>
   </si>
   <si>
@@ -501,9 +480,6 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 19" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-07-11T150143</t>
-  </si>
-  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT20_KO</t>
   </si>
   <si>
@@ -511,9 +487,6 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 20" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-07-11T150216</t>
-  </si>
-  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT21_KO</t>
   </si>
   <si>
@@ -521,9 +494,6 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 21" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-07-11T150252</t>
-  </si>
-  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT22_KO</t>
   </si>
   <si>
@@ -531,9 +501,6 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 22" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-07-11T150343</t>
-  </si>
-  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT23_KO</t>
   </si>
   <si>
@@ -541,9 +508,6 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 23" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-07-11T150543</t>
-  </si>
-  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT24</t>
   </si>
   <si>
@@ -605,9 +569,6 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 27" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-07-11T150640</t>
-  </si>
-  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT28_KO</t>
   </si>
   <si>
@@ -615,10 +576,10 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 28" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-07-11T150725</t>
-  </si>
-  <si>
     <t xml:space="preserve">Razionale di Applicabilità</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campo/sezione non gestito/a in modo strutturato dall’applicativo</t>
   </si>
   <si>
     <t xml:space="preserve">Campo obbligatorio</t>
@@ -750,7 +711,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -860,6 +821,18 @@
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1063,7 +1036,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1188,8 +1161,12 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
+    <xf numFmtId="164" fontId="16" fillId="4" borderId="12" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="4" borderId="12" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="4" borderId="12" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1228,7 +1205,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1323,14 +1300,6 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
           <fgColor rgb="FFC6EFCE"/>
           <bgColor rgb="FF000000"/>
         </patternFill>
@@ -1339,6 +1308,14 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
           <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
@@ -1611,7 +1588,7 @@
   <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="1" sqref="G11:H11 A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1640,7 +1617,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="210.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -1698,7 +1675,7 @@
   <dimension ref="A1:B996"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+      <selection pane="topLeft" activeCell="B15" activeCellId="1" sqref="G11:H11 B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2775,11 +2752,11 @@
   <dimension ref="A1:W592"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A26" activeCellId="0" sqref="A26"/>
-      <selection pane="bottomRight" activeCell="E5" activeCellId="0" sqref="E5"/>
+      <selection pane="bottomLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="bottomRight" activeCell="H11" activeCellId="0" sqref="G11:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3140,19 +3117,15 @@
       <c r="E11" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="28" t="n">
-        <v>45849</v>
-      </c>
-      <c r="G11" s="28" t="s">
-        <v>61</v>
-      </c>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
       <c r="H11" s="28"/>
       <c r="I11" s="28"/>
       <c r="J11" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="K11" s="31" t="s">
-        <v>62</v>
+      <c r="K11" s="27" t="s">
+        <v>61</v>
       </c>
       <c r="L11" s="27"/>
       <c r="M11" s="27"/>
@@ -3180,45 +3153,45 @@
         <v>48</v>
       </c>
       <c r="D12" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="E12" s="27" t="s">
+      <c r="F12" s="28" t="n">
+        <v>45854</v>
+      </c>
+      <c r="G12" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="F12" s="28" t="n">
-        <v>45849</v>
-      </c>
-      <c r="G12" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="H12" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="I12" s="28" t="s">
-        <v>55</v>
-      </c>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
       <c r="J12" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K12" s="27" t="s">
-        <v>66</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="K12" s="27"/>
       <c r="L12" s="27"/>
       <c r="M12" s="27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N12" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="O12" s="27" t="s">
-        <v>67</v>
+        <v>54</v>
+      </c>
+      <c r="O12" s="31" t="s">
+        <v>65</v>
       </c>
       <c r="P12" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q12" s="27"/>
-      <c r="R12" s="27"/>
-      <c r="S12" s="27"/>
+        <v>54</v>
+      </c>
+      <c r="Q12" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="R12" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="S12" s="32" t="s">
+        <v>66</v>
+      </c>
       <c r="T12" s="27"/>
       <c r="U12" s="29" t="s">
         <v>54</v>
@@ -3239,22 +3212,22 @@
         <v>48</v>
       </c>
       <c r="D13" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="27" t="s">
         <v>68</v>
-      </c>
-      <c r="E13" s="27" t="s">
-        <v>69</v>
       </c>
       <c r="F13" s="28" t="n">
         <v>45849</v>
       </c>
       <c r="G13" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="H13" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="H13" s="28" t="s">
+      <c r="I13" s="28" t="s">
         <v>71</v>
-      </c>
-      <c r="I13" s="28" t="s">
-        <v>72</v>
       </c>
       <c r="J13" s="27" t="s">
         <v>54</v>
@@ -3270,7 +3243,7 @@
         <v>55</v>
       </c>
       <c r="O13" s="27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P13" s="27" t="s">
         <v>57</v>
@@ -3296,28 +3269,20 @@
         <v>48</v>
       </c>
       <c r="D14" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="E14" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="F14" s="28" t="n">
-        <v>45849</v>
-      </c>
-      <c r="G14" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="H14" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="I14" s="28" t="s">
-        <v>55</v>
-      </c>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
       <c r="J14" s="27" t="s">
         <v>57</v>
       </c>
       <c r="K14" s="27" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="L14" s="27"/>
       <c r="M14" s="27" t="s">
@@ -3327,7 +3292,7 @@
         <v>55</v>
       </c>
       <c r="O14" s="27" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="P14" s="27" t="s">
         <v>55</v>
@@ -3353,22 +3318,22 @@
         <v>48</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E15" s="27" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F15" s="28" t="n">
         <v>45849</v>
       </c>
       <c r="G15" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="H15" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="I15" s="28" t="s">
         <v>80</v>
-      </c>
-      <c r="H15" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="I15" s="28" t="s">
-        <v>82</v>
       </c>
       <c r="J15" s="27" t="s">
         <v>54</v>
@@ -3384,7 +3349,7 @@
         <v>55</v>
       </c>
       <c r="O15" s="27" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="P15" s="27" t="s">
         <v>57</v>
@@ -3410,28 +3375,20 @@
         <v>48</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E16" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="F16" s="28" t="n">
-        <v>45849</v>
-      </c>
-      <c r="G16" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="H16" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="I16" s="28" t="s">
-        <v>55</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
       <c r="J16" s="27" t="s">
         <v>57</v>
       </c>
       <c r="K16" s="27" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="L16" s="27"/>
       <c r="M16" s="27" t="s">
@@ -3441,7 +3398,7 @@
         <v>55</v>
       </c>
       <c r="O16" s="27" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="P16" s="27" t="s">
         <v>55</v>
@@ -3467,28 +3424,20 @@
         <v>48</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E17" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="F17" s="28" t="n">
-        <v>45849</v>
-      </c>
-      <c r="G17" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="H17" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="I17" s="28" t="s">
-        <v>55</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
       <c r="J17" s="27" t="s">
         <v>57</v>
       </c>
       <c r="K17" s="27" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="L17" s="27"/>
       <c r="M17" s="27" t="s">
@@ -3498,7 +3447,7 @@
         <v>55</v>
       </c>
       <c r="O17" s="27" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="P17" s="27" t="s">
         <v>55</v>
@@ -3524,28 +3473,20 @@
         <v>48</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E18" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="F18" s="28" t="n">
-        <v>45849</v>
-      </c>
-      <c r="G18" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="H18" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="I18" s="28" t="s">
-        <v>55</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
       <c r="J18" s="27" t="s">
         <v>57</v>
       </c>
       <c r="K18" s="27" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="L18" s="27"/>
       <c r="M18" s="27" t="s">
@@ -3555,7 +3496,7 @@
         <v>55</v>
       </c>
       <c r="O18" s="27" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="P18" s="27" t="s">
         <v>55</v>
@@ -3581,22 +3522,22 @@
         <v>48</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E19" s="27" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F19" s="28" t="n">
         <v>45849</v>
       </c>
       <c r="G19" s="28" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="I19" s="28" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="J19" s="27" t="s">
         <v>54</v>
@@ -3612,7 +3553,7 @@
         <v>55</v>
       </c>
       <c r="O19" s="27" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="P19" s="27" t="s">
         <v>57</v>
@@ -3638,22 +3579,22 @@
         <v>48</v>
       </c>
       <c r="D20" s="27" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E20" s="27" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F20" s="28" t="n">
         <v>45849</v>
       </c>
       <c r="G20" s="28" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="I20" s="28" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="J20" s="27" t="s">
         <v>54</v>
@@ -3669,7 +3610,7 @@
         <v>55</v>
       </c>
       <c r="O20" s="27" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="P20" s="27" t="s">
         <v>57</v>
@@ -3695,28 +3636,20 @@
         <v>48</v>
       </c>
       <c r="D21" s="27" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E21" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="F21" s="28" t="n">
-        <v>45849</v>
-      </c>
-      <c r="G21" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="H21" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="I21" s="28" t="s">
-        <v>55</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
       <c r="J21" s="27" t="s">
         <v>57</v>
       </c>
       <c r="K21" s="27" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="L21" s="27"/>
       <c r="M21" s="27" t="s">
@@ -3726,7 +3659,7 @@
         <v>55</v>
       </c>
       <c r="O21" s="27" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="P21" s="27" t="s">
         <v>55</v>
@@ -3752,28 +3685,20 @@
         <v>48</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E22" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="F22" s="28" t="n">
-        <v>45849</v>
-      </c>
-      <c r="G22" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="H22" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="I22" s="28" t="s">
-        <v>55</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
       <c r="J22" s="27" t="s">
         <v>57</v>
       </c>
       <c r="K22" s="27" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="L22" s="27"/>
       <c r="M22" s="27" t="s">
@@ -3783,7 +3708,7 @@
         <v>55</v>
       </c>
       <c r="O22" s="27" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="P22" s="27" t="s">
         <v>55</v>
@@ -3809,28 +3734,20 @@
         <v>48</v>
       </c>
       <c r="D23" s="27" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="E23" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="F23" s="28" t="n">
-        <v>45849</v>
-      </c>
-      <c r="G23" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="H23" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="I23" s="28" t="s">
-        <v>55</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
       <c r="J23" s="27" t="s">
         <v>57</v>
       </c>
       <c r="K23" s="27" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="L23" s="27"/>
       <c r="M23" s="27" t="s">
@@ -3840,7 +3757,7 @@
         <v>55</v>
       </c>
       <c r="O23" s="27" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="P23" s="27" t="s">
         <v>55</v>
@@ -3866,28 +3783,20 @@
         <v>48</v>
       </c>
       <c r="D24" s="27" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="E24" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="F24" s="28" t="n">
-        <v>45849</v>
-      </c>
-      <c r="G24" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="H24" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="I24" s="28" t="s">
-        <v>55</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
       <c r="J24" s="27" t="s">
         <v>57</v>
       </c>
       <c r="K24" s="27" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="L24" s="27"/>
       <c r="M24" s="27" t="s">
@@ -3897,7 +3806,7 @@
         <v>55</v>
       </c>
       <c r="O24" s="27" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="P24" s="27" t="s">
         <v>55</v>
@@ -3923,28 +3832,20 @@
         <v>48</v>
       </c>
       <c r="D25" s="27" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="E25" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="F25" s="28" t="n">
-        <v>45849</v>
-      </c>
-      <c r="G25" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="H25" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="I25" s="28" t="s">
-        <v>55</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
       <c r="J25" s="27" t="s">
         <v>57</v>
       </c>
       <c r="K25" s="27" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="L25" s="27"/>
       <c r="M25" s="27" t="s">
@@ -3954,7 +3855,7 @@
         <v>55</v>
       </c>
       <c r="O25" s="27" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="P25" s="27" t="s">
         <v>55</v>
@@ -3980,28 +3881,20 @@
         <v>48</v>
       </c>
       <c r="D26" s="27" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="E26" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="F26" s="28" t="n">
-        <v>45849</v>
-      </c>
-      <c r="G26" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="H26" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="I26" s="28" t="s">
-        <v>55</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
       <c r="J26" s="27" t="s">
         <v>57</v>
       </c>
       <c r="K26" s="27" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="L26" s="27"/>
       <c r="M26" s="27" t="s">
@@ -4011,7 +3904,7 @@
         <v>55</v>
       </c>
       <c r="O26" s="27" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="P26" s="27" t="s">
         <v>55</v>
@@ -4037,28 +3930,20 @@
         <v>48</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="E27" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="F27" s="28" t="n">
-        <v>45849</v>
-      </c>
-      <c r="G27" s="28" t="s">
-        <v>127</v>
-      </c>
-      <c r="H27" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="I27" s="28" t="s">
-        <v>55</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
       <c r="J27" s="27" t="s">
         <v>57</v>
       </c>
       <c r="K27" s="27" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="L27" s="27"/>
       <c r="M27" s="27" t="s">
@@ -4068,7 +3953,7 @@
         <v>55</v>
       </c>
       <c r="O27" s="27" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="P27" s="27" t="s">
         <v>55</v>
@@ -4083,118 +3968,118 @@
         <v>58</v>
       </c>
     </row>
-    <row r="28" s="38" customFormat="true" ht="154.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="32" t="n">
+    <row r="28" s="39" customFormat="true" ht="154.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="33" t="n">
         <v>448</v>
       </c>
-      <c r="B28" s="32" t="s">
+      <c r="B28" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="32" t="s">
+      <c r="C28" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="D28" s="32" t="s">
-        <v>128</v>
-      </c>
-      <c r="E28" s="33" t="s">
-        <v>129</v>
+      <c r="D28" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="E28" s="34" t="s">
+        <v>117</v>
       </c>
       <c r="F28" s="28" t="n">
         <v>45849</v>
       </c>
-      <c r="G28" s="34" t="s">
-        <v>130</v>
-      </c>
-      <c r="H28" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="I28" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="J28" s="35" t="s">
+      <c r="G28" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="H28" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="I28" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="J28" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="K28" s="35" t="s">
+      <c r="K28" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="L28" s="35"/>
-      <c r="M28" s="35" t="s">
+      <c r="L28" s="36"/>
+      <c r="M28" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="N28" s="35" t="s">
+      <c r="N28" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="O28" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="P28" s="35" t="s">
+      <c r="O28" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="P28" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="Q28" s="35"/>
-      <c r="R28" s="35"/>
-      <c r="S28" s="35"/>
-      <c r="T28" s="35"/>
-      <c r="U28" s="36"/>
-      <c r="V28" s="37"/>
-      <c r="W28" s="35" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="29" s="38" customFormat="true" ht="164.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="32" t="n">
+      <c r="Q28" s="36"/>
+      <c r="R28" s="36"/>
+      <c r="S28" s="36"/>
+      <c r="T28" s="36"/>
+      <c r="U28" s="37"/>
+      <c r="V28" s="38"/>
+      <c r="W28" s="36" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="29" s="39" customFormat="true" ht="164.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="33" t="n">
         <v>449</v>
       </c>
-      <c r="B29" s="32" t="s">
+      <c r="B29" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="32" t="s">
+      <c r="C29" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="D29" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="E29" s="33" t="s">
-        <v>135</v>
+      <c r="D29" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="E29" s="34" t="s">
+        <v>123</v>
       </c>
       <c r="F29" s="28" t="n">
         <v>45849</v>
       </c>
-      <c r="G29" s="34" t="s">
-        <v>136</v>
-      </c>
-      <c r="H29" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="I29" s="34" t="s">
-        <v>138</v>
-      </c>
-      <c r="J29" s="35" t="s">
+      <c r="G29" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="H29" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="I29" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="J29" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="K29" s="35" t="s">
+      <c r="K29" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="L29" s="35"/>
-      <c r="M29" s="35" t="s">
+      <c r="L29" s="36"/>
+      <c r="M29" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="N29" s="35" t="s">
+      <c r="N29" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="O29" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="P29" s="35" t="s">
+      <c r="O29" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="P29" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="Q29" s="35"/>
-      <c r="R29" s="35"/>
-      <c r="S29" s="35"/>
-      <c r="T29" s="35"/>
-      <c r="U29" s="36"/>
-      <c r="V29" s="37"/>
-      <c r="W29" s="35" t="s">
-        <v>133</v>
+      <c r="Q29" s="36"/>
+      <c r="R29" s="36"/>
+      <c r="S29" s="36"/>
+      <c r="T29" s="36"/>
+      <c r="U29" s="37"/>
+      <c r="V29" s="38"/>
+      <c r="W29" s="36" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="30" s="30" customFormat="true" ht="124.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4208,22 +4093,22 @@
         <v>48</v>
       </c>
       <c r="D30" s="27" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="E30" s="27" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="F30" s="28" t="n">
         <v>45849</v>
       </c>
       <c r="G30" s="27" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="H30" s="27" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="I30" s="27" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="J30" s="27" t="s">
         <v>54</v>
@@ -4239,7 +4124,7 @@
         <v>55</v>
       </c>
       <c r="O30" s="27" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="P30" s="27" t="s">
         <v>57</v>
@@ -4265,28 +4150,20 @@
         <v>48</v>
       </c>
       <c r="D31" s="27" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="E31" s="27" t="s">
-        <v>146</v>
-      </c>
-      <c r="F31" s="28" t="n">
-        <v>45849</v>
-      </c>
-      <c r="G31" s="27" t="s">
-        <v>147</v>
-      </c>
-      <c r="H31" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="I31" s="27" t="s">
-        <v>55</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="F31" s="28"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
       <c r="J31" s="27" t="s">
         <v>57</v>
       </c>
       <c r="K31" s="27" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="L31" s="27"/>
       <c r="M31" s="27" t="s">
@@ -4296,7 +4173,7 @@
         <v>55</v>
       </c>
       <c r="O31" s="27" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="P31" s="27" t="s">
         <v>55</v>
@@ -4322,28 +4199,20 @@
         <v>48</v>
       </c>
       <c r="D32" s="27" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="E32" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="F32" s="28" t="n">
-        <v>45849</v>
-      </c>
-      <c r="G32" s="28" t="s">
-        <v>150</v>
-      </c>
-      <c r="H32" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="I32" s="28" t="s">
-        <v>55</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
       <c r="J32" s="27" t="s">
         <v>57</v>
       </c>
       <c r="K32" s="27" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="L32" s="27"/>
       <c r="M32" s="27" t="s">
@@ -4353,7 +4222,7 @@
         <v>55</v>
       </c>
       <c r="O32" s="27" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="P32" s="27" t="s">
         <v>55</v>
@@ -8404,7 +8273,7 @@
       <formula1>Sheet1!$A$2:$A$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="K10 K12:K32" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="K10:K32" type="list">
       <formula1>'LISTA VALORI'!$A$2:$A$8</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -8429,49 +8298,49 @@
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I15" activeCellId="0" sqref="I15"/>
+      <selection pane="topLeft" activeCell="I15" activeCellId="1" sqref="G11:H11 I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="39" t="s">
-        <v>151</v>
+      <c r="A1" s="40" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="39" t="s">
-        <v>66</v>
+      <c r="A2" s="40" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="39" t="s">
-        <v>152</v>
+      <c r="A3" s="40" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="39" t="s">
-        <v>94</v>
+      <c r="A4" s="40" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="39" t="s">
-        <v>153</v>
+      <c r="A5" s="40" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="39" t="s">
-        <v>87</v>
+      <c r="A6" s="40" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="39" t="s">
-        <v>77</v>
+      <c r="A7" s="40" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="39" t="s">
-        <v>154</v>
+      <c r="A8" s="40" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -8495,7 +8364,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="bottomLeft" activeCell="A8" activeCellId="1" sqref="G11:H11 A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8510,170 +8379,170 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="44.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="40" t="s">
-        <v>155</v>
+      <c r="A1" s="41" t="s">
+        <v>142</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>25</v>
       </c>
       <c r="C1" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="F1" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1" s="43" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="44" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" s="45" t="s">
+        <v>149</v>
+      </c>
+      <c r="D2" s="46" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="44" t="s">
+        <v>151</v>
+      </c>
+      <c r="B3" s="44" t="s">
+        <v>148</v>
+      </c>
+      <c r="C3" s="45" t="s">
+        <v>152</v>
+      </c>
+      <c r="D3" s="46" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="44" t="s">
+        <v>154</v>
+      </c>
+      <c r="B4" s="44" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4" s="45" t="s">
+        <v>155</v>
+      </c>
+      <c r="D4" s="47" t="s">
         <v>156</v>
       </c>
-      <c r="D1" s="18" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="44" t="s">
         <v>157</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="B5" s="44" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5" s="45" t="s">
         <v>158</v>
       </c>
-      <c r="G1" s="42" t="s">
+      <c r="D5" s="46" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="43" t="s">
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="44" t="s">
         <v>160</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B6" s="44" t="s">
+        <v>148</v>
+      </c>
+      <c r="C6" s="45" t="s">
         <v>161</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="D6" s="47" t="s">
         <v>162</v>
       </c>
-      <c r="D2" s="45" t="s">
+    </row>
+    <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="44" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="43" t="s">
+      <c r="B7" s="44" t="s">
+        <v>148</v>
+      </c>
+      <c r="C7" s="45" t="s">
         <v>164</v>
       </c>
-      <c r="B3" s="43" t="s">
-        <v>161</v>
-      </c>
-      <c r="C3" s="44" t="s">
+      <c r="D7" s="47" t="s">
         <v>165</v>
       </c>
-      <c r="D3" s="45" t="s">
+    </row>
+    <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="48" t="s">
+        <v>148</v>
+      </c>
+      <c r="C8" s="49" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="43" t="s">
+      <c r="D8" s="50" t="s">
         <v>167</v>
       </c>
-      <c r="B4" s="43" t="s">
-        <v>161</v>
-      </c>
-      <c r="C4" s="44" t="s">
+    </row>
+    <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="44" t="s">
         <v>168</v>
       </c>
-      <c r="D4" s="46" t="s">
+      <c r="B9" s="44" t="s">
+        <v>148</v>
+      </c>
+      <c r="C9" s="45" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="43" t="s">
+      <c r="D9" s="47" t="s">
         <v>170</v>
       </c>
-      <c r="B5" s="43" t="s">
-        <v>161</v>
-      </c>
-      <c r="C5" s="44" t="s">
+    </row>
+    <row r="10" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="44" t="s">
         <v>171</v>
       </c>
-      <c r="D5" s="45" t="s">
+      <c r="B10" s="44" t="s">
+        <v>148</v>
+      </c>
+      <c r="C10" s="51" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="43" t="s">
+      <c r="D10" s="46" t="s">
         <v>173</v>
       </c>
-      <c r="B6" s="43" t="s">
-        <v>161</v>
-      </c>
-      <c r="C6" s="44" t="s">
+    </row>
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="44" t="s">
         <v>174</v>
       </c>
-      <c r="D6" s="46" t="s">
+      <c r="B11" s="44" t="s">
+        <v>148</v>
+      </c>
+      <c r="C11" s="45" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="43" t="s">
+      <c r="D11" s="47" t="s">
         <v>176</v>
       </c>
-      <c r="B7" s="43" t="s">
-        <v>161</v>
-      </c>
-      <c r="C7" s="44" t="s">
-        <v>177</v>
-      </c>
-      <c r="D7" s="46" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="47" t="s">
-        <v>161</v>
-      </c>
-      <c r="C8" s="48" t="s">
-        <v>179</v>
-      </c>
-      <c r="D8" s="49" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="43" t="s">
-        <v>181</v>
-      </c>
-      <c r="B9" s="43" t="s">
-        <v>161</v>
-      </c>
-      <c r="C9" s="44" t="s">
-        <v>182</v>
-      </c>
-      <c r="D9" s="46" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="43" t="s">
-        <v>184</v>
-      </c>
-      <c r="B10" s="43" t="s">
-        <v>161</v>
-      </c>
-      <c r="C10" s="50" t="s">
-        <v>185</v>
-      </c>
-      <c r="D10" s="45" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="43" t="s">
-        <v>187</v>
-      </c>
-      <c r="B11" s="43" t="s">
-        <v>161</v>
-      </c>
-      <c r="C11" s="44" t="s">
-        <v>188</v>
-      </c>
-      <c r="D11" s="46" t="s">
-        <v>189</v>
-      </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D12" s="51"/>
+      <c r="D12" s="52"/>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D13" s="51"/>
+      <c r="D13" s="52"/>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -9643,7 +9512,7 @@
   <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="G11:H11 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9654,32 +9523,32 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="53" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="52" t="s">
-        <v>190</v>
-      </c>
-      <c r="B2" s="52" t="s">
+      <c r="A2" s="53" t="s">
+        <v>177</v>
+      </c>
+      <c r="B2" s="53" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="52" t="s">
-        <v>191</v>
-      </c>
-      <c r="B3" s="52" t="s">
+      <c r="A3" s="53" t="s">
+        <v>178</v>
+      </c>
+      <c r="B3" s="53" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="52"/>
-      <c r="B4" s="52"/>
+      <c r="A4" s="53"/>
+      <c r="B4" s="53"/>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/GATEWAY/A1#111#ABINTRAXSRLXX/Abintrax/LiveCapture/1.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111#ABINTRAXSRLXX/Abintrax/LiveCapture/1.0/report-checklist.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="179">
   <si>
     <t xml:space="preserve">COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -711,7 +711,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -827,12 +827,7 @@
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1036,7 +1031,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="53">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1165,7 +1160,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="4" borderId="12" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="13" fillId="4" borderId="12" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1179,10 +1174,6 @@
     </xf>
     <xf numFmtId="166" fontId="13" fillId="4" borderId="12" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="4" borderId="12" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="13" fillId="4" borderId="12" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1205,7 +1196,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1587,8 +1578,8 @@
   </sheetPr>
   <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="1" sqref="G11:H11 A5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1617,7 +1608,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="210.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -1674,8 +1665,8 @@
   </sheetPr>
   <dimension ref="A1:B996"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="1" sqref="G11:H11 B15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2751,12 +2742,12 @@
   </sheetPr>
   <dimension ref="A1:W592"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="9" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="H11" activeCellId="0" sqref="G11:H11"/>
+      <selection pane="bottomRight" activeCell="K12" activeCellId="0" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3075,9 +3066,7 @@
       <c r="J10" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="27" t="s">
-        <v>55</v>
-      </c>
+      <c r="K10" s="27"/>
       <c r="L10" s="27"/>
       <c r="M10" s="27" t="s">
         <v>54</v>
@@ -3232,9 +3221,7 @@
       <c r="J13" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="K13" s="27" t="s">
-        <v>55</v>
-      </c>
+      <c r="K13" s="27"/>
       <c r="L13" s="27"/>
       <c r="M13" s="27" t="s">
         <v>54</v>
@@ -3338,9 +3325,7 @@
       <c r="J15" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="K15" s="27" t="s">
-        <v>55</v>
-      </c>
+      <c r="K15" s="27"/>
       <c r="L15" s="27"/>
       <c r="M15" s="27" t="s">
         <v>54</v>
@@ -3542,9 +3527,7 @@
       <c r="J19" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="K19" s="27" t="s">
-        <v>55</v>
-      </c>
+      <c r="K19" s="27"/>
       <c r="L19" s="27"/>
       <c r="M19" s="27" t="s">
         <v>54</v>
@@ -3599,9 +3582,7 @@
       <c r="J20" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="K20" s="27" t="s">
-        <v>55</v>
-      </c>
+      <c r="K20" s="27"/>
       <c r="L20" s="27"/>
       <c r="M20" s="27" t="s">
         <v>54</v>
@@ -3968,7 +3949,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="28" s="39" customFormat="true" ht="154.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" s="38" customFormat="true" ht="154.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="33" t="n">
         <v>448</v>
       </c>
@@ -3996,36 +3977,34 @@
       <c r="I28" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="J28" s="36" t="s">
+      <c r="J28" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="K28" s="36" t="s">
+      <c r="K28" s="32"/>
+      <c r="L28" s="32"/>
+      <c r="M28" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="L28" s="36"/>
-      <c r="M28" s="36" t="s">
+      <c r="N28" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="N28" s="36" t="s">
+      <c r="O28" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="P28" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="O28" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="P28" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q28" s="36"/>
-      <c r="R28" s="36"/>
-      <c r="S28" s="36"/>
-      <c r="T28" s="36"/>
-      <c r="U28" s="37"/>
-      <c r="V28" s="38"/>
-      <c r="W28" s="36" t="s">
+      <c r="Q28" s="32"/>
+      <c r="R28" s="32"/>
+      <c r="S28" s="32"/>
+      <c r="T28" s="32"/>
+      <c r="U28" s="36"/>
+      <c r="V28" s="37"/>
+      <c r="W28" s="32" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="29" s="39" customFormat="true" ht="164.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" s="38" customFormat="true" ht="164.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="33" t="n">
         <v>449</v>
       </c>
@@ -4053,32 +4032,30 @@
       <c r="I29" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="J29" s="36" t="s">
+      <c r="J29" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="K29" s="36" t="s">
+      <c r="K29" s="32"/>
+      <c r="L29" s="32"/>
+      <c r="M29" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="L29" s="36"/>
-      <c r="M29" s="36" t="s">
+      <c r="N29" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="N29" s="36" t="s">
+      <c r="O29" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="P29" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="O29" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="P29" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q29" s="36"/>
-      <c r="R29" s="36"/>
-      <c r="S29" s="36"/>
-      <c r="T29" s="36"/>
-      <c r="U29" s="37"/>
-      <c r="V29" s="38"/>
-      <c r="W29" s="36" t="s">
+      <c r="Q29" s="32"/>
+      <c r="R29" s="32"/>
+      <c r="S29" s="32"/>
+      <c r="T29" s="32"/>
+      <c r="U29" s="36"/>
+      <c r="V29" s="37"/>
+      <c r="W29" s="32" t="s">
         <v>121</v>
       </c>
     </row>
@@ -4113,9 +4090,7 @@
       <c r="J30" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="K30" s="27" t="s">
-        <v>55</v>
-      </c>
+      <c r="K30" s="27"/>
       <c r="L30" s="27"/>
       <c r="M30" s="27" t="s">
         <v>54</v>
@@ -8297,49 +8272,49 @@
   </sheetPr>
   <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I15" activeCellId="1" sqref="G11:H11 I15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I15" activeCellId="0" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="39" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="39" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="39" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="39" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="39" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="39" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="39" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="39" t="s">
         <v>141</v>
       </c>
     </row>
@@ -8361,10 +8336,10 @@
   </sheetPr>
   <dimension ref="A1:G960"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A8" activeCellId="1" sqref="G11:H11 A8"/>
+      <selection pane="bottomLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8379,7 +8354,7 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="44.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="40" t="s">
         <v>142</v>
       </c>
       <c r="B1" s="18" t="s">
@@ -8391,158 +8366,158 @@
       <c r="D1" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="F1" s="41" t="s">
         <v>145</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="42" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="43" t="s">
         <v>147</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="43" t="s">
         <v>148</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="44" t="s">
         <v>149</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="45" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="43" t="s">
         <v>151</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="43" t="s">
         <v>148</v>
       </c>
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="44" t="s">
         <v>152</v>
       </c>
-      <c r="D3" s="46" t="s">
+      <c r="D3" s="45" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="43" t="s">
         <v>154</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="43" t="s">
         <v>148</v>
       </c>
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="44" t="s">
         <v>155</v>
       </c>
-      <c r="D4" s="47" t="s">
+      <c r="D4" s="46" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="43" t="s">
         <v>157</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="43" t="s">
         <v>148</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="44" t="s">
         <v>158</v>
       </c>
-      <c r="D5" s="46" t="s">
+      <c r="D5" s="45" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="43" t="s">
         <v>160</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="43" t="s">
         <v>148</v>
       </c>
-      <c r="C6" s="45" t="s">
+      <c r="C6" s="44" t="s">
         <v>161</v>
       </c>
-      <c r="D6" s="47" t="s">
+      <c r="D6" s="46" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="43" t="s">
         <v>163</v>
       </c>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="43" t="s">
         <v>148</v>
       </c>
-      <c r="C7" s="45" t="s">
+      <c r="C7" s="44" t="s">
         <v>164</v>
       </c>
-      <c r="D7" s="47" t="s">
+      <c r="D7" s="46" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="47" t="s">
         <v>148</v>
       </c>
-      <c r="C8" s="49" t="s">
+      <c r="C8" s="48" t="s">
         <v>166</v>
       </c>
-      <c r="D8" s="50" t="s">
+      <c r="D8" s="49" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="43" t="s">
         <v>168</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="43" t="s">
         <v>148</v>
       </c>
-      <c r="C9" s="45" t="s">
+      <c r="C9" s="44" t="s">
         <v>169</v>
       </c>
-      <c r="D9" s="47" t="s">
+      <c r="D9" s="46" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="43" t="s">
         <v>171</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="43" t="s">
         <v>148</v>
       </c>
-      <c r="C10" s="51" t="s">
+      <c r="C10" s="50" t="s">
         <v>172</v>
       </c>
-      <c r="D10" s="46" t="s">
+      <c r="D10" s="45" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="44" t="s">
+      <c r="A11" s="43" t="s">
         <v>174</v>
       </c>
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="43" t="s">
         <v>148</v>
       </c>
-      <c r="C11" s="45" t="s">
+      <c r="C11" s="44" t="s">
         <v>175</v>
       </c>
-      <c r="D11" s="47" t="s">
+      <c r="D11" s="46" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D12" s="52"/>
+      <c r="D12" s="51"/>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D13" s="52"/>
+      <c r="D13" s="51"/>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -9511,8 +9486,8 @@
   </sheetPr>
   <dimension ref="A1:B1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="G11:H11 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9523,32 +9498,32 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="52" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="52" t="s">
         <v>177</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="52" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="52" t="s">
         <v>178</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="52" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="53"/>
-      <c r="B4" s="53"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="52"/>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/GATEWAY/A1#111#ABINTRAXSRLXX/Abintrax/LiveCapture/1.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111#ABINTRAXSRLXX/Abintrax/LiveCapture/1.0/report-checklist.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="179">
   <si>
     <t xml:space="preserve">COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -305,13 +305,13 @@
     <t xml:space="preserve">SI</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t xml:space="preserve">Campo token JWT non valido. Il campo purpose_of_use non è valorizzato</t>
   </si>
   <si>
     <t xml:space="preserve">NO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L'errore viene gestito in maniera trasparente all’operatore, con la notifica di un messaggio di errore. In caso di retry del fallimento, l'errore viene gestito dall’operatore effettuando un nuovo tentativo di invio.</t>
   </si>
   <si>
     <t xml:space="preserve">KO</t>
@@ -343,9 +343,6 @@
     <t xml:space="preserve">Connect timed out</t>
   </si>
   <si>
-    <t xml:space="preserve">L'errore viene gestito in maniera trasparente all’operatore, con la notifica di un messaggio di errore. In caso di retry del fallimento, l'errore viene gestito dall’operatore effettuando un nuovo tentativo di invio.</t>
-  </si>
-  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT6_KO</t>
   </si>
   <si>
@@ -370,6 +367,9 @@
   <si>
     <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t xml:space="preserve">   </t>
@@ -1148,6 +1148,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="13" fillId="4" borderId="12" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="14" fillId="4" borderId="12" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1157,10 +1161,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="16" fillId="4" borderId="12" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="4" borderId="12" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1579,7 +1579,7 @@
   <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="15:15 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1603,17 +1603,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="79.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="210.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="229.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="105.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
@@ -1666,7 +1666,7 @@
   <dimension ref="A1:B996"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="15:15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2743,11 +2743,11 @@
   <dimension ref="A1:W592"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="L12" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="K12" activeCellId="0" sqref="K12"/>
+      <selection pane="topRight" activeCell="L1" activeCellId="0" sqref="L1"/>
+      <selection pane="bottomLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="bottomRight" activeCell="E15" activeCellId="0" sqref="15:15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3035,7 +3035,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" s="30" customFormat="true" ht="154.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" s="31" customFormat="true" ht="154.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="27" t="n">
         <v>32</v>
       </c>
@@ -3072,25 +3072,31 @@
         <v>54</v>
       </c>
       <c r="N10" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="O10" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="O10" s="27" t="s">
+      <c r="P10" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="P10" s="27" t="s">
+      <c r="Q10" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="R10" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="S10" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="Q10" s="27"/>
-      <c r="R10" s="27"/>
-      <c r="S10" s="27"/>
       <c r="T10" s="27"/>
-      <c r="U10" s="29"/>
+      <c r="U10" s="30"/>
       <c r="V10" s="27"/>
       <c r="W10" s="27" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="11" s="30" customFormat="true" ht="236.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" s="31" customFormat="true" ht="236.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="27" t="n">
         <v>40</v>
       </c>
@@ -3111,7 +3117,7 @@
       <c r="H11" s="28"/>
       <c r="I11" s="28"/>
       <c r="J11" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K11" s="27" t="s">
         <v>61</v>
@@ -3125,13 +3131,13 @@
       <c r="R11" s="27"/>
       <c r="S11" s="27"/>
       <c r="T11" s="27"/>
-      <c r="U11" s="29"/>
+      <c r="U11" s="30"/>
       <c r="V11" s="27"/>
       <c r="W11" s="27" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="12" s="30" customFormat="true" ht="155.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" s="31" customFormat="true" ht="155.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="27" t="n">
         <v>48</v>
       </c>
@@ -3166,23 +3172,23 @@
       <c r="N12" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="O12" s="31" t="s">
+      <c r="O12" s="32" t="s">
         <v>65</v>
       </c>
       <c r="P12" s="27" t="s">
         <v>54</v>
       </c>
       <c r="Q12" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R12" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="S12" s="32" t="s">
-        <v>66</v>
+      <c r="S12" s="29" t="s">
+        <v>57</v>
       </c>
       <c r="T12" s="27"/>
-      <c r="U12" s="29" t="s">
+      <c r="U12" s="30" t="s">
         <v>54</v>
       </c>
       <c r="V12" s="27"/>
@@ -3190,7 +3196,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" s="30" customFormat="true" ht="128.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" s="31" customFormat="true" ht="128.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="27" t="n">
         <v>152</v>
       </c>
@@ -3201,22 +3207,22 @@
         <v>48</v>
       </c>
       <c r="D13" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="27" t="s">
         <v>67</v>
-      </c>
-      <c r="E13" s="27" t="s">
-        <v>68</v>
       </c>
       <c r="F13" s="28" t="n">
         <v>45849</v>
       </c>
       <c r="G13" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="H13" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="H13" s="28" t="s">
+      <c r="I13" s="28" t="s">
         <v>70</v>
-      </c>
-      <c r="I13" s="28" t="s">
-        <v>71</v>
       </c>
       <c r="J13" s="27" t="s">
         <v>54</v>
@@ -3227,25 +3233,31 @@
         <v>54</v>
       </c>
       <c r="N13" s="27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O13" s="27" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P13" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q13" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="R13" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="S13" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="Q13" s="27"/>
-      <c r="R13" s="27"/>
-      <c r="S13" s="27"/>
       <c r="T13" s="27"/>
-      <c r="U13" s="29"/>
+      <c r="U13" s="30"/>
       <c r="V13" s="27"/>
       <c r="W13" s="27" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="14" s="30" customFormat="true" ht="128.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" s="31" customFormat="true" ht="128.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="27" t="n">
         <v>154</v>
       </c>
@@ -3256,45 +3268,45 @@
         <v>48</v>
       </c>
       <c r="D14" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" s="27" t="s">
         <v>73</v>
-      </c>
-      <c r="E14" s="27" t="s">
-        <v>74</v>
       </c>
       <c r="F14" s="28"/>
       <c r="G14" s="28"/>
       <c r="H14" s="28"/>
       <c r="I14" s="28"/>
       <c r="J14" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K14" s="27" t="s">
         <v>61</v>
       </c>
       <c r="L14" s="27"/>
       <c r="M14" s="27" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="N14" s="27" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="O14" s="27" t="s">
         <v>75</v>
       </c>
       <c r="P14" s="27" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="Q14" s="27"/>
       <c r="R14" s="27"/>
       <c r="S14" s="27"/>
       <c r="T14" s="27"/>
-      <c r="U14" s="29"/>
+      <c r="U14" s="30"/>
       <c r="V14" s="27"/>
       <c r="W14" s="27" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="15" s="30" customFormat="true" ht="126" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" s="31" customFormat="true" ht="126" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="27" t="n">
         <v>155</v>
       </c>
@@ -3331,25 +3343,31 @@
         <v>54</v>
       </c>
       <c r="N15" s="27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O15" s="27" t="s">
         <v>81</v>
       </c>
       <c r="P15" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q15" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="R15" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="S15" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="Q15" s="27"/>
-      <c r="R15" s="27"/>
-      <c r="S15" s="27"/>
       <c r="T15" s="27"/>
-      <c r="U15" s="29"/>
+      <c r="U15" s="30"/>
       <c r="V15" s="27"/>
       <c r="W15" s="27" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="16" s="30" customFormat="true" ht="115.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" s="31" customFormat="true" ht="115.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="27" t="n">
         <v>156</v>
       </c>
@@ -3370,35 +3388,35 @@
       <c r="H16" s="28"/>
       <c r="I16" s="28"/>
       <c r="J16" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K16" s="27" t="s">
         <v>84</v>
       </c>
       <c r="L16" s="27"/>
       <c r="M16" s="27" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="N16" s="27" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="O16" s="27" t="s">
         <v>75</v>
       </c>
       <c r="P16" s="27" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="Q16" s="27"/>
       <c r="R16" s="27"/>
       <c r="S16" s="27"/>
       <c r="T16" s="27"/>
-      <c r="U16" s="29"/>
+      <c r="U16" s="30"/>
       <c r="V16" s="27"/>
       <c r="W16" s="27" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="17" s="30" customFormat="true" ht="138.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" s="31" customFormat="true" ht="138.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="27" t="n">
         <v>159</v>
       </c>
@@ -3419,35 +3437,35 @@
       <c r="H17" s="28"/>
       <c r="I17" s="28"/>
       <c r="J17" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K17" s="27" t="s">
         <v>61</v>
       </c>
       <c r="L17" s="27"/>
       <c r="M17" s="27" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="N17" s="27" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="O17" s="27" t="s">
         <v>75</v>
       </c>
       <c r="P17" s="27" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="Q17" s="27"/>
       <c r="R17" s="27"/>
       <c r="S17" s="27"/>
       <c r="T17" s="27"/>
-      <c r="U17" s="29"/>
+      <c r="U17" s="30"/>
       <c r="V17" s="27"/>
       <c r="W17" s="27" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="18" s="30" customFormat="true" ht="128.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" s="31" customFormat="true" ht="128.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="27" t="n">
         <v>160</v>
       </c>
@@ -3468,35 +3486,35 @@
       <c r="H18" s="28"/>
       <c r="I18" s="28"/>
       <c r="J18" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K18" s="27" t="s">
         <v>89</v>
       </c>
       <c r="L18" s="27"/>
       <c r="M18" s="27" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="N18" s="27" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="O18" s="27" t="s">
         <v>75</v>
       </c>
       <c r="P18" s="27" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="Q18" s="27"/>
       <c r="R18" s="27"/>
       <c r="S18" s="27"/>
       <c r="T18" s="27"/>
-      <c r="U18" s="29"/>
+      <c r="U18" s="30"/>
       <c r="V18" s="27"/>
       <c r="W18" s="27" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="19" s="30" customFormat="true" ht="137.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" s="31" customFormat="true" ht="137.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="27" t="n">
         <v>161</v>
       </c>
@@ -3533,25 +3551,31 @@
         <v>54</v>
       </c>
       <c r="N19" s="27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O19" s="27" t="s">
         <v>95</v>
       </c>
       <c r="P19" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q19" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="R19" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="S19" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="Q19" s="27"/>
-      <c r="R19" s="27"/>
-      <c r="S19" s="27"/>
       <c r="T19" s="27"/>
-      <c r="U19" s="29"/>
+      <c r="U19" s="30"/>
       <c r="V19" s="27"/>
       <c r="W19" s="27" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="20" s="30" customFormat="true" ht="137.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" s="31" customFormat="true" ht="137.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="27" t="n">
         <v>162</v>
       </c>
@@ -3588,25 +3612,31 @@
         <v>54</v>
       </c>
       <c r="N20" s="27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O20" s="27" t="s">
         <v>101</v>
       </c>
       <c r="P20" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q20" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="R20" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="S20" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="Q20" s="27"/>
-      <c r="R20" s="27"/>
-      <c r="S20" s="27"/>
       <c r="T20" s="27"/>
-      <c r="U20" s="29"/>
+      <c r="U20" s="30"/>
       <c r="V20" s="27"/>
       <c r="W20" s="27" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="21" s="30" customFormat="true" ht="136.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" s="31" customFormat="true" ht="136.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="27" t="n">
         <v>163</v>
       </c>
@@ -3627,35 +3657,35 @@
       <c r="H21" s="28"/>
       <c r="I21" s="28"/>
       <c r="J21" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K21" s="27" t="s">
         <v>61</v>
       </c>
       <c r="L21" s="27"/>
       <c r="M21" s="27" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="N21" s="27" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="O21" s="27" t="s">
         <v>75</v>
       </c>
       <c r="P21" s="27" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="Q21" s="27"/>
       <c r="R21" s="27"/>
       <c r="S21" s="27"/>
       <c r="T21" s="27"/>
-      <c r="U21" s="29"/>
+      <c r="U21" s="30"/>
       <c r="V21" s="27"/>
       <c r="W21" s="27" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="22" s="30" customFormat="true" ht="136.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" s="31" customFormat="true" ht="136.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="27" t="n">
         <v>164</v>
       </c>
@@ -3676,35 +3706,35 @@
       <c r="H22" s="28"/>
       <c r="I22" s="28"/>
       <c r="J22" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K22" s="27" t="s">
         <v>61</v>
       </c>
       <c r="L22" s="27"/>
       <c r="M22" s="27" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="N22" s="27" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="O22" s="27" t="s">
         <v>75</v>
       </c>
       <c r="P22" s="27" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="Q22" s="27"/>
       <c r="R22" s="27"/>
       <c r="S22" s="27"/>
       <c r="T22" s="27"/>
-      <c r="U22" s="29"/>
+      <c r="U22" s="30"/>
       <c r="V22" s="27"/>
       <c r="W22" s="27" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="23" s="30" customFormat="true" ht="149.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" s="31" customFormat="true" ht="149.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="27" t="n">
         <v>165</v>
       </c>
@@ -3725,35 +3755,35 @@
       <c r="H23" s="28"/>
       <c r="I23" s="28"/>
       <c r="J23" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K23" s="27" t="s">
         <v>61</v>
       </c>
       <c r="L23" s="27"/>
       <c r="M23" s="27" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="N23" s="27" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="O23" s="27" t="s">
         <v>75</v>
       </c>
       <c r="P23" s="27" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="Q23" s="27"/>
       <c r="R23" s="27"/>
       <c r="S23" s="27"/>
       <c r="T23" s="27"/>
-      <c r="U23" s="29"/>
+      <c r="U23" s="30"/>
       <c r="V23" s="27"/>
       <c r="W23" s="27" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="24" s="30" customFormat="true" ht="127.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" s="31" customFormat="true" ht="127.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="27" t="n">
         <v>166</v>
       </c>
@@ -3774,35 +3804,35 @@
       <c r="H24" s="28"/>
       <c r="I24" s="28"/>
       <c r="J24" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K24" s="27" t="s">
         <v>61</v>
       </c>
       <c r="L24" s="27"/>
       <c r="M24" s="27" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="N24" s="27" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="O24" s="27" t="s">
         <v>75</v>
       </c>
       <c r="P24" s="27" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="Q24" s="27"/>
       <c r="R24" s="27"/>
       <c r="S24" s="27"/>
       <c r="T24" s="27"/>
-      <c r="U24" s="29"/>
+      <c r="U24" s="30"/>
       <c r="V24" s="27"/>
       <c r="W24" s="27" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="25" s="30" customFormat="true" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" s="31" customFormat="true" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="27" t="n">
         <v>167</v>
       </c>
@@ -3823,35 +3853,35 @@
       <c r="H25" s="28"/>
       <c r="I25" s="28"/>
       <c r="J25" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K25" s="27" t="s">
         <v>61</v>
       </c>
       <c r="L25" s="27"/>
       <c r="M25" s="27" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="N25" s="27" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="O25" s="27" t="s">
         <v>75</v>
       </c>
       <c r="P25" s="27" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="Q25" s="27"/>
       <c r="R25" s="27"/>
       <c r="S25" s="27"/>
       <c r="T25" s="27"/>
-      <c r="U25" s="29"/>
+      <c r="U25" s="30"/>
       <c r="V25" s="27"/>
       <c r="W25" s="27" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="26" s="30" customFormat="true" ht="157.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" s="31" customFormat="true" ht="157.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="27" t="n">
         <v>168</v>
       </c>
@@ -3872,35 +3902,35 @@
       <c r="H26" s="28"/>
       <c r="I26" s="28"/>
       <c r="J26" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K26" s="27" t="s">
         <v>61</v>
       </c>
       <c r="L26" s="27"/>
       <c r="M26" s="27" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="N26" s="27" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="O26" s="27" t="s">
         <v>75</v>
       </c>
       <c r="P26" s="27" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="Q26" s="27"/>
       <c r="R26" s="27"/>
       <c r="S26" s="27"/>
       <c r="T26" s="27"/>
-      <c r="U26" s="29"/>
+      <c r="U26" s="30"/>
       <c r="V26" s="27"/>
       <c r="W26" s="27" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="27" s="30" customFormat="true" ht="137.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" s="31" customFormat="true" ht="137.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="27" t="n">
         <v>169</v>
       </c>
@@ -3921,29 +3951,29 @@
       <c r="H27" s="28"/>
       <c r="I27" s="28"/>
       <c r="J27" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K27" s="27" t="s">
         <v>89</v>
       </c>
       <c r="L27" s="27"/>
       <c r="M27" s="27" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="N27" s="27" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="O27" s="27" t="s">
         <v>75</v>
       </c>
       <c r="P27" s="27" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="Q27" s="27"/>
       <c r="R27" s="27"/>
       <c r="S27" s="27"/>
       <c r="T27" s="27"/>
-      <c r="U27" s="29"/>
+      <c r="U27" s="30"/>
       <c r="V27" s="27"/>
       <c r="W27" s="27" t="s">
         <v>58</v>
@@ -3977,30 +4007,30 @@
       <c r="I28" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="J28" s="32" t="s">
+      <c r="J28" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="K28" s="32"/>
-      <c r="L28" s="32"/>
-      <c r="M28" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="N28" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="O28" s="32" t="s">
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="N28" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="O28" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="P28" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q28" s="32"/>
-      <c r="R28" s="32"/>
-      <c r="S28" s="32"/>
-      <c r="T28" s="32"/>
+      <c r="P28" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q28" s="29"/>
+      <c r="R28" s="29"/>
+      <c r="S28" s="29"/>
+      <c r="T28" s="29"/>
       <c r="U28" s="36"/>
       <c r="V28" s="37"/>
-      <c r="W28" s="32" t="s">
+      <c r="W28" s="29" t="s">
         <v>121</v>
       </c>
     </row>
@@ -4032,34 +4062,34 @@
       <c r="I29" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="J29" s="32" t="s">
+      <c r="J29" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="K29" s="32"/>
-      <c r="L29" s="32"/>
-      <c r="M29" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="N29" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="O29" s="32" t="s">
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="N29" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="O29" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="P29" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q29" s="32"/>
-      <c r="R29" s="32"/>
-      <c r="S29" s="32"/>
-      <c r="T29" s="32"/>
+      <c r="P29" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q29" s="29"/>
+      <c r="R29" s="29"/>
+      <c r="S29" s="29"/>
+      <c r="T29" s="29"/>
       <c r="U29" s="36"/>
       <c r="V29" s="37"/>
-      <c r="W29" s="32" t="s">
+      <c r="W29" s="29" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="30" s="30" customFormat="true" ht="124.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" s="31" customFormat="true" ht="124.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="27" t="n">
         <v>461</v>
       </c>
@@ -4096,17 +4126,23 @@
         <v>54</v>
       </c>
       <c r="N30" s="27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O30" s="27" t="s">
         <v>132</v>
       </c>
       <c r="P30" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q30" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="R30" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="S30" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="Q30" s="27"/>
-      <c r="R30" s="27"/>
-      <c r="S30" s="27"/>
       <c r="T30" s="27"/>
       <c r="U30" s="27"/>
       <c r="V30" s="27"/>
@@ -4114,7 +4150,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" s="30" customFormat="true" ht="124.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" s="31" customFormat="true" ht="124.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="27" t="n">
         <v>468</v>
       </c>
@@ -4135,23 +4171,23 @@
       <c r="H31" s="27"/>
       <c r="I31" s="27"/>
       <c r="J31" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K31" s="27" t="s">
         <v>89</v>
       </c>
       <c r="L31" s="27"/>
       <c r="M31" s="27" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="N31" s="27" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="O31" s="27" t="s">
         <v>75</v>
       </c>
       <c r="P31" s="27" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="Q31" s="27"/>
       <c r="R31" s="27"/>
@@ -4163,7 +4199,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="32" s="30" customFormat="true" ht="114" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" s="31" customFormat="true" ht="114" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="27" t="n">
         <v>475</v>
       </c>
@@ -4184,29 +4220,29 @@
       <c r="H32" s="28"/>
       <c r="I32" s="28"/>
       <c r="J32" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K32" s="27" t="s">
         <v>84</v>
       </c>
       <c r="L32" s="27"/>
       <c r="M32" s="27" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="N32" s="27" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="O32" s="27" t="s">
         <v>75</v>
       </c>
       <c r="P32" s="27" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="Q32" s="27"/>
       <c r="R32" s="27"/>
       <c r="S32" s="27"/>
       <c r="T32" s="27"/>
-      <c r="U32" s="29"/>
+      <c r="U32" s="30"/>
       <c r="V32" s="27"/>
       <c r="W32" s="27" t="s">
         <v>58</v>
@@ -8253,6 +8289,9 @@
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E17" r:id="rId2" display="https://github.com/ministero-salute/it-fse-accreditamento"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -8260,8 +8299,8 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <drawing r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -8273,7 +8312,7 @@
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I15" activeCellId="0" sqref="I15"/>
+      <selection pane="topLeft" activeCell="I15" activeCellId="0" sqref="15:15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8339,7 +8378,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="bottomLeft" activeCell="A8" activeCellId="1" sqref="15:15 A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9487,7 +9526,7 @@
   <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="15:15 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9518,7 +9557,7 @@
         <v>178</v>
       </c>
       <c r="B3" s="52" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
